--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62443.73101503474</v>
+        <v>-64882.20411478147</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>121.5266753425259</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>258.2775521997502</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.947834256226279</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>217.03145816937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>20.47554896769155</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>199.596110977429</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>92.48904074021866</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>141.9654392457102</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>263.2715225932675</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.33006904216909</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>214.0003484772234</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.61263105777592</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922677</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>75.96788793061381</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>83.29550035394011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>65.78783178799263</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>61.66004604094911</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.6164309267687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>12.76515480631744</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>78.89395497654149</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2308.470254646116</v>
+        <v>1283.624091728971</v>
       </c>
       <c r="C2" t="n">
-        <v>1939.507737705705</v>
+        <v>1283.624091728971</v>
       </c>
       <c r="D2" t="n">
-        <v>1581.242039098954</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E2" t="n">
-        <v>1195.45378650071</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>784.4678817111023</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>369.3954315560988</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3323.638312259447</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3117.660564643669</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3117.660564643669</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2786.597677300098</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883008</v>
+        <v>2433.829022029984</v>
       </c>
       <c r="X2" t="n">
-        <v>2698.609586621928</v>
+        <v>2060.363263768904</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.470254646116</v>
+        <v>1670.223931793093</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.6709106036544</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1074.453040645202</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>846.4634897471846</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>625.6709106036544</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>1792.126722677732</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.833343223196</v>
+        <v>1423.16420573732</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1064.89850713057</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>679.1102545323254</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>268.1243497427178</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.1808689801002</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C7" t="n">
-        <v>532.2446860521933</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>474.5281740303432</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>474.5281740303432</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>327.6382265324328</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>159.9353899071517</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1694.064657264495</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.380169058608</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1149.962999021648</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>921.9734481236303</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.1808689801002</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1565.440264581601</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1196.47774764119</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D8" t="n">
-        <v>1196.47774764119</v>
+        <v>1133.303650087722</v>
       </c>
       <c r="E8" t="n">
-        <v>810.6894950429455</v>
+        <v>747.5153974894774</v>
       </c>
       <c r="F8" t="n">
-        <v>399.7035902533379</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>388.6715441387385</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>91.08794374750573</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645723</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
         <v>529.0179941377679</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>918.7467562092049</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>918.7467562092049</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>697.9541770656748</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0125592675703</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675703</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851772</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851772</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741508</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704548</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>1166.19518280653</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>945.4026036630001</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967227</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D19" t="n">
-        <v>551.263652184387</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2384.680208791423</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5944,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614398</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614398</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2184.16844972361</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1895.093223067808</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1640.408734861921</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
         <v>484.8112968429803</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,16 +7117,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
         <v>1491.508541327549</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>233.156366278157</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7574131429277529</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.6341900408519</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646571</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>103.8640922513235</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>80.64613085857654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>119.3662399606955</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.21554925516861</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>204.6402955209708</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>146.8157004124957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760025</v>
@@ -26329,19 +26329,19 @@
         <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="I2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="I2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="J2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="K2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="L2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760024</v>
@@ -26353,7 +26353,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.95917052875</v>
+        <v>50238.95917052893</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.84288319405</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319404</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="M4" t="n">
-        <v>13606.80811184278</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1188323.879680045</v>
+        <v>-1188510.273068585</v>
       </c>
       <c r="C6" t="n">
-        <v>127688.9245011259</v>
+        <v>127688.9245011261</v>
       </c>
       <c r="D6" t="n">
-        <v>127688.9245011258</v>
+        <v>127688.9245011261</v>
       </c>
       <c r="E6" t="n">
-        <v>-117283.1598671025</v>
+        <v>-117317.8977925384</v>
       </c>
       <c r="F6" t="n">
-        <v>208129.3019402527</v>
+        <v>208094.564014817</v>
       </c>
       <c r="G6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="H6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148167</v>
       </c>
       <c r="I6" t="n">
-        <v>208129.3019402525</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="J6" t="n">
-        <v>-9401.900457024938</v>
+        <v>-9436.638382460806</v>
       </c>
       <c r="K6" t="n">
-        <v>208129.3019402529</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="L6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148167</v>
       </c>
       <c r="M6" t="n">
-        <v>123074.2740047408</v>
+        <v>123039.536079305</v>
       </c>
       <c r="N6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="O6" t="n">
-        <v>208129.3019402526</v>
+        <v>208094.5640148168</v>
       </c>
       <c r="P6" t="n">
-        <v>208129.3019402525</v>
+        <v>208094.5640148168</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.57279904464247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>107.2399275319496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,13 +27591,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>69.49154016722105</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>334.2074926529914</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>211.3256146760244</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>52.26597417410213</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>144.2463989599026</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>143.6045231484439</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>17.24686073075686</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.52264985936759</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28254,13 +28254,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>434.6640573992324</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>27.13475084531535</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
